--- a/biology/Médecine/Syndrome_de_Crouzon/Syndrome_de_Crouzon.xlsx
+++ b/biology/Médecine/Syndrome_de_Crouzon/Syndrome_de_Crouzon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Crouzon est une craniosynostose en rapport avec une mutation du gène FGFR2. Cette mutation du gène FGFR2 est responsable d'autres craniosynostoses regroupées sous le nom de craniosynostoses FGFR dépendantes.
 Les sutures du crâne qui fusionnent dans cette maladie sont les sutures coronales, lambdoïdes et sagittales.
@@ -513,7 +525,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dysostose craniofaciale type Crouzon
 Syndrome pseudo Crouzon
@@ -545,10 +559,12 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène FGFR2 ou en anglais : fibroblast growth factor receptor 2 localisé sur le locus q26 du chromosome 10. Il existe deux allèles de cette mutation
-Certaines études suggèrent que l'âge paternel augmenterait le risque de cette pathologie[1],[2].</t>
+Certaines études suggèrent que l'âge paternel augmenterait le risque de cette pathologie,.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 50 000 naissances.
 </t>
@@ -607,16 +625,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fusion des sutures du crâne se fait avant la naissance.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La fusion des sutures du crâne se fait avant la naissance.
 La face est caractéristique avec hypoplasie du maxillaire supérieur, lèvre supérieure hypoplasique, hypertélorisme, exorbitisme.
 Dans ce syndrome, il n’existe pas d’atteinte des mains et des pieds.
 Cette craniosténose étant évolutive, le risque le plus important est l’apparition d’une hypertension intracrânienne avec cécité.
-L'intelligence est normale.
-Avec acanthosis nigricans
-Épaississement velouté, pigmenté, avec des stries, parfois papillomateux, localisé dans les plis.
-</t>
+L'intelligence est normale.</t>
         </is>
       </c>
     </row>
@@ -641,18 +658,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le diagnostic est essentiellement clinique :
-Anténatal
-Le diagnostic anténatal est possible par échographie si la forme en est précoce avec anomalie de la forme du crâne.
-Post natal
-Les caractéristiques cliniques permettent facilement le diagnostic.
-Différentiel
-Le diagnostic différentiel est celui d’une craniosynostose.
+          <t>Avec acanthosis nigricans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Épaississement velouté, pigmenté, avec des stries, parfois papillomateux, localisé dans les plis.
 </t>
         </is>
       </c>
@@ -678,12 +695,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mode de transmission</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transmission autosomique dominante
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est essentiellement clinique :
 </t>
         </is>
       </c>
@@ -709,10 +728,156 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anténatal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic anténatal est possible par échographie si la forme en est précoce avec anomalie de la forme du crâne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Post natal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caractéristiques cliniques permettent facilement le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Différentiel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic différentiel est celui d’une craniosynostose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique dominante
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Crouzon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Une enquête familiale est indispensable.
 </t>
